--- a/17 Documentos de trabajo.xlsx
+++ b/17 Documentos de trabajo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Documentos de trabajo</t>
   </si>
@@ -25,32 +25,13 @@
     <t>Instituto de Estudios Hidráulicos y Ambientales - IDEHA</t>
   </si>
   <si>
-    <t>ESTUDIO Y CONTROL DE LA CONTAMINACIÓN AMBIENTAL - ECCA</t>
-  </si>
-  <si>
-    <t>Oceanografia Operacional</t>
-  </si>
-  <si>
-    <t>GRUPO DE INNOVACION Y DESARROLLO TECNOLOGICO DE UNISANGIL - IDENTUS</t>
-  </si>
-  <si>
-    <t>GICMIL Grupo de Investigación en Comunicaciones Militares</t>
+    <t>Gestión Integrada de Recursos Hídricos</t>
   </si>
   <si>
     <t>39.- Documento de trabajo (Working Paper) : Informe Final sobre Monitoreo de la calidad de agua y sedimentos en el Canal del Dique y su sistema cenagoso  2003,  Nro. Paginas: 1,  Instituciones participantes: ,  URL: ,  DOI: Autores: AMELIA ESCUDERO DE FONSECA, HECTOR ANAYA</t>
   </si>
   <si>
-    <t>2.- Documento de trabajo (Working Paper) : Monitoreo y Caracterizacion de los vertimientos puntuales y calidad de agua del recurso hidrico del Municipio de Santiago de Cali en los rios Aguacatal, Cali, Melendez, Cañaveralejo y Cauca  2009,  Nro. Paginas: 200,  Instituciones participantes: Universidad del Valle,  URL: ,  DOI: Autores: LUZ EDITH BARBA HO, HECTOR MARIO GUTIERREZ ZAPATA</t>
-  </si>
-  <si>
-    <t>156.- Documento de trabajo (Working Paper) : Calidad del Agua en la Bahía de Tumaco, monitoreo de las condiciones fisicoquímicas y biológicas  2012,  Nro. Paginas: 45,  Instituciones participantes: CentroInvestigaciones Oceanográficas e Hidrográficas del Pacífico,  URL: www.cccp.org.co,  DOI: Autores: NIGIRETH PAOLA SUAREZ VARGAS, ROBINSON CASANOVA ROSERO, JOSE DAVID IRIARTE SANCHEZ</t>
-  </si>
-  <si>
-    <t>4.- Documento de trabajo (Working Paper) : Diseño de sistema robótico semiautónomo para monitoreo de calidad del agua superficial  2019,  Nro. Paginas: 19,  Instituciones participantes: Fundación Universitaria de San Gil, UNISANGIL Instituto Politécnico Nacional, CICATA Unidad Querétaro,  URL: ,  DOI: Autores: SANDRA JOHANA BENITEZ MUNOZ, ANA ROCIO CORDOBA MALAVER, WILSON GAMBOA CONTRERAS</t>
-  </si>
-  <si>
-    <t>59.- Documento de trabajo (Working Paper) : Manual Técnico - ELABORACIÓN DE PROTOTIPO PARA CAPTACIÓN DE NIEBLA CON MONITOREO REMOTO PARA ZONAS CON ESCASEZ DE AGUA EN FINCA EL PINO, VEREDA EL CHUSCAL, MUNICIPIO DE ZIPACÓN  2021,  Nro. Paginas: 30,  Instituciones participantes: Escuela de Comunicaciones Militares,  URL: https://drive.google.com/file/d/16pGnvU3CYOmxKvlTYbVuYmZ7AslvUJVY/view?usp=sharing,  DOI:10.21830/issn.2711-0761 Autores: YEISON ALFONSO BUITRAGO ROJAS 
- 60.- Documento de trabajo (Working Paper) : Manual de Usuario - ELABORACIÓN DE PROTOTIPO PARA CAPTACIÓN DE NIEBLA CON MONITOREO REMOTO PARA ZONAS CON ESCASEZ DE AGUA EN FINCA EL PINO, VEREDA EL CHUSCAL, MUNICIPIO DE ZIPACÓN  2021,  Nro. Paginas: 18,  Instituciones participantes: Escuela de Comunicaciones Militares,  URL: https://drive.google.com/file/d/1XuojmSy9_DzlLrEBD82p5TD0QwoBZ-b6/view?usp=sharing,  DOI:10.21830/issn.2711-0761 Autores: YEISON ALFONSO BUITRAGO ROJAS</t>
+    <t>8.- Documento de trabajo (Working Paper) : Red de monitoreo de la calidad del agua del río cauca y sus tributarios. Tramos Salvajina - La Virginia. Vol. VI. Fase III  2007,  Nro. Paginas: 103,  Instituciones participantes: Corporación Autónoma Regional del Valle del Cauca, CVC Universidad del Valle Facultad de Ingeniería Escuela de Ingeniería de Recursos Naturales y del Ambiente, EIDENAR Instituto Cinara,  URL: http://www.cvc.gov.co/cvc/Mosaic/,  DOI: Autores: CARLOS ALBERTO RAMIREZ CALLEJAS, ALBERTO GALVIS CASTANO, DIANA PAOLA BERNAL SUAREZ</t>
   </si>
 </sst>
 </file>
@@ -408,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -435,31 +416,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
